--- a/Estimation des charges Bounizar Guillemeteau Maingoutaud Annan G1B.xlsx
+++ b/Estimation des charges Bounizar Guillemeteau Maingoutaud Annan G1B.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\gitclone\TheParcProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A153428A-5A92-486F-9781-539C17208A9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Informatisation_AnimaParc" sheetId="1" r:id="rId4"/>
+    <sheet name="Informatisation_AnimaParc" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hallo</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -29,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>ESTIMATION DE PROJET UCP</t>
   </si>
@@ -517,36 +534,6 @@
     <t>Total (UUCP)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Avenir Next"/>
-      </rPr>
-      <t>Acheter des billets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Avenir Next"/>
-      </rPr>
-      <t>Mettre à jour les stocks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Avenir Next"/>
-      </rPr>
-      <t>Enregistrer les horaires</t>
-    </r>
-  </si>
-  <si>
     <t>TOTAL UUCP</t>
   </si>
   <si>
@@ -575,39 +562,107 @@
   </si>
   <si>
     <t>(Rappel basé sur ECF)</t>
+  </si>
+  <si>
+    <t>Créer un Client</t>
+  </si>
+  <si>
+    <t>Supprimer un Client</t>
+  </si>
+  <si>
+    <t>Modifier Client</t>
+  </si>
+  <si>
+    <t>Gérer Espace Client</t>
+  </si>
+  <si>
+    <t>Gérer Statistique</t>
+  </si>
+  <si>
+    <t>Créer Tarif</t>
+  </si>
+  <si>
+    <t>Modifier Tarif</t>
+  </si>
+  <si>
+    <t>Supprimer Tarif</t>
+  </si>
+  <si>
+    <t>Consulter Tarif</t>
+  </si>
+  <si>
+    <t>Consulter Tarif Client</t>
+  </si>
+  <si>
+    <t>Créer Offre Commercial</t>
+  </si>
+  <si>
+    <t>Consulter Offre Commercial</t>
+  </si>
+  <si>
+    <t>Modifier Offre Commercial</t>
+  </si>
+  <si>
+    <t>Supprimer Offre Commercial</t>
+  </si>
+  <si>
+    <t>Consulter Offre Commercial Client</t>
+  </si>
+  <si>
+    <t>Créer offre Promotionnelle</t>
+  </si>
+  <si>
+    <t>Modifier Offre Promotionnelle</t>
+  </si>
+  <si>
+    <t>Consulter Offre Promotionnelle Administration</t>
+  </si>
+  <si>
+    <t>Supprimer Offre Promotionnelle</t>
+  </si>
+  <si>
+    <t>Acheter Billets</t>
+  </si>
+  <si>
+    <t>Consulter Règle Fidélisation</t>
+  </si>
+  <si>
+    <t>Supprimer Règles Fidélisation</t>
+  </si>
+  <si>
+    <t>Créer Règles Fidélisation</t>
+  </si>
+  <si>
+    <t>Gérer Espace Administration</t>
+  </si>
+  <si>
+    <t>Gérer Espace Employé</t>
+  </si>
+  <si>
+    <t>seConnecter</t>
+  </si>
+  <si>
+    <t>badgeuse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -618,7 +673,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Verdana"/>
@@ -648,11 +703,6 @@
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Avenir Next"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -674,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1042,223 +1092,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="83">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" indent="3" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,30 +1389,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="fffff58c"/>
-      <rgbColor rgb="ffed220b"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFFF58C"/>
+      <rgbColor rgb="FFED220B"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Thème Office">
       <a:dk1>
@@ -1422,7 +1599,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1498,7 +1675,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1517,7 +1694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1651,7 +1828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1677,7 +1854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,9 +1945,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1785,7 +1968,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1793,7 +1976,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1812,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1838,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1864,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1890,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1942,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1968,7 +2151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1994,7 +2177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2020,7 +2203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2046,7 +2229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2059,9 +2242,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2075,7 +2264,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2094,7 +2283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2124,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2150,7 +2339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2176,7 +2365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2202,7 +2391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2228,7 +2417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2254,7 +2443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2280,7 +2469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2306,7 +2495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2332,7 +2521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2345,34 +2534,42 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.3516" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7891" style="1" customWidth="1"/>
-    <col min="8" max="13" width="10.8516" style="1" customWidth="1"/>
-    <col min="14" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="256" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" spans="1:13" ht="13.7" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2387,8 +2584,8 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
@@ -2404,11 +2601,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
@@ -2423,7 +2620,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:13" ht="13.7" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2438,9 +2635,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:13" ht="13.7" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
@@ -2455,7 +2652,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:13" ht="13.7" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2470,24 +2667,24 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" ht="26.4" customHeight="1">
+    <row r="7" spans="1:13" ht="26.45" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s" s="9">
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="12"/>
@@ -2497,12 +2694,12 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" ht="112.65" customHeight="1">
+    <row r="8" spans="1:13" ht="112.7" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" t="s" s="13">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="14">
@@ -2512,10 +2709,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="14">
-        <f>E8*D8</f>
+        <f t="shared" ref="F8:F20" si="0">E8*D8</f>
         <v>6</v>
       </c>
-      <c r="G8" t="s" s="15">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="12"/>
@@ -2528,12 +2725,12 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" ht="24.65" customHeight="1">
+    <row r="9" spans="1:13" ht="24.6" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" t="s" s="13">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="14">
@@ -2543,10 +2740,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="14">
-        <f>E9*D9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" t="s" s="15">
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="12"/>
@@ -2556,12 +2753,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" ht="57.65" customHeight="1">
+    <row r="10" spans="1:13" ht="57.6" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" t="s" s="13">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="14">
@@ -2571,10 +2768,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="14">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" t="s" s="15">
+      <c r="G10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="12"/>
@@ -2584,12 +2781,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" ht="57.65" customHeight="1">
+    <row r="11" spans="1:13" ht="57.6" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" t="s" s="13">
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s" s="13">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="14">
@@ -2599,10 +2796,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="14">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" t="s" s="15">
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="12"/>
@@ -2612,12 +2809,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" ht="35.65" customHeight="1">
+    <row r="12" spans="1:13" ht="35.65" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" t="s" s="13">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="14">
@@ -2627,10 +2824,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="14">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" t="s" s="15">
+      <c r="G12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="12"/>
@@ -2640,12 +2837,12 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" ht="24.65" customHeight="1">
+    <row r="13" spans="1:13" ht="24.6" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" t="s" s="13">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="14">
@@ -2655,10 +2852,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="14">
-        <f>E13*D13</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G13" t="s" s="15">
+      <c r="G13" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="12"/>
@@ -2668,12 +2865,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" ht="24.65" customHeight="1">
+    <row r="14" spans="1:13" ht="24.6" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" t="s" s="13">
+      <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C14" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="14">
@@ -2683,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="14">
-        <f>E14*D14</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G14" t="s" s="15">
+      <c r="G14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="12"/>
@@ -2696,12 +2893,12 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" ht="24.65" customHeight="1">
+    <row r="15" spans="1:13" ht="24.6" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" t="s" s="13">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s" s="13">
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="14">
@@ -2711,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="14">
-        <f>E15*D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="15">
+      <c r="G15" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="12"/>
@@ -2724,12 +2921,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" ht="68.65" customHeight="1">
+    <row r="16" spans="1:13" ht="68.650000000000006" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" t="s" s="13">
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s" s="13">
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="14">
@@ -2739,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="F16" s="14">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G16" t="s" s="15">
+      <c r="G16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="12"/>
@@ -2752,12 +2949,12 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" ht="35.65" customHeight="1">
+    <row r="17" spans="1:13" ht="35.65" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" t="s" s="13">
+      <c r="B17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s" s="13">
+      <c r="C17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="14">
@@ -2767,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="14">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" t="s" s="15">
+      <c r="G17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="12"/>
@@ -2780,12 +2977,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" ht="68.65" customHeight="1">
+    <row r="18" spans="1:13" ht="68.650000000000006" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" t="s" s="13">
+      <c r="B18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s" s="13">
+      <c r="C18" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="14">
@@ -2795,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="14">
-        <f>E18*D18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" t="s" s="15">
+      <c r="G18" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="12"/>
@@ -2808,12 +3005,12 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" ht="46.65" customHeight="1">
+    <row r="19" spans="1:13" ht="46.7" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" t="s" s="13">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="14">
@@ -2823,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="14">
-        <f>E19*D19</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19" t="s" s="15">
+      <c r="G19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="12"/>
@@ -2836,12 +3033,12 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" ht="35.65" customHeight="1">
+    <row r="20" spans="1:13" ht="35.65" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" t="s" s="13">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C20" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="14">
@@ -2851,10 +3048,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="14">
-        <f>E20*D20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20" t="s" s="15">
+      <c r="G20" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="12"/>
@@ -2864,7 +3061,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
+    <row r="21" spans="1:13" ht="13.7" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2882,9 +3079,9 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" ht="13.65" customHeight="1">
+    <row r="22" spans="1:13" ht="13.7" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" t="s" s="19">
+      <c r="B22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="20">
@@ -2902,7 +3099,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" ht="13.65" customHeight="1">
+    <row r="23" spans="1:13" ht="13.7" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2917,7 +3114,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" ht="13.65" customHeight="1">
+    <row r="24" spans="1:13" ht="13.7" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2932,9 +3129,9 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" ht="13.65" customHeight="1">
+    <row r="25" spans="1:13" ht="13.7" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" t="s" s="4">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="2"/>
@@ -2949,7 +3146,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" ht="13.65" customHeight="1">
+    <row r="26" spans="1:13" ht="13.7" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2964,24 +3161,24 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" ht="26.4" customHeight="1">
+    <row r="27" spans="1:13" ht="26.45" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" t="s" s="24">
+      <c r="B27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="s" s="25">
+      <c r="C27" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s" s="26">
+      <c r="D27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E27" t="s" s="24">
+      <c r="E27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s" s="7">
+      <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G27" t="s" s="26">
+      <c r="G27" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="12"/>
@@ -2991,12 +3188,12 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" ht="24.65" customHeight="1">
+    <row r="28" spans="1:13" ht="24.6" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" t="s" s="13">
+      <c r="B28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s" s="13">
+      <c r="C28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="14">
@@ -3006,28 +3203,28 @@
         <v>3</v>
       </c>
       <c r="F28" s="14">
-        <f>D28*E28</f>
+        <f t="shared" ref="F28:F35" si="1">D28*E28</f>
         <v>4.5</v>
       </c>
-      <c r="G28" t="s" s="15">
+      <c r="G28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="2"/>
       <c r="J28" s="16">
-        <f>IF(F28&gt;3,1,0)</f>
+        <f t="shared" ref="J28:J35" si="2">IF(F28&gt;3,1,0)</f>
         <v>1</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" ht="13.65" customHeight="1">
+    <row r="29" spans="1:13" ht="13.7" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" t="s" s="13">
+      <c r="B29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s" s="13">
+      <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="14">
@@ -3037,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="14">
-        <f>D29*E29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" t="s" s="15">
+      <c r="G29" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="2"/>
       <c r="J29" s="16">
-        <f>IF(F29&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="2"/>
@@ -3057,12 +3254,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="24.65" customHeight="1">
+    <row r="30" spans="1:13" ht="24.6" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" t="s" s="13">
+      <c r="B30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s" s="13">
+      <c r="C30" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="14">
@@ -3072,16 +3269,16 @@
         <v>2</v>
       </c>
       <c r="F30" s="14">
-        <f>D30*E30</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G30" t="s" s="15">
+      <c r="G30" s="15" t="s">
         <v>62</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="2"/>
       <c r="J30" s="16">
-        <f>IF(F30&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="2"/>
@@ -3092,12 +3289,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" ht="35.65" customHeight="1">
+    <row r="31" spans="1:13" ht="35.65" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" t="s" s="13">
+      <c r="B31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s" s="13">
+      <c r="C31" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="14">
@@ -3107,16 +3304,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f>D31*E31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31" t="s" s="15">
+      <c r="G31" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="2"/>
       <c r="J31" s="16">
-        <f>IF(F31&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="2"/>
@@ -3127,12 +3324,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" ht="13.65" customHeight="1">
+    <row r="32" spans="1:13" ht="13.7" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" t="s" s="13">
+      <c r="B32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s" s="13">
+      <c r="C32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="14">
@@ -3142,28 +3339,28 @@
         <v>5</v>
       </c>
       <c r="F32" s="14">
-        <f>D32*E32</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G32" t="s" s="15">
+      <c r="G32" s="15" t="s">
         <v>68</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="2"/>
       <c r="J32" s="16">
-        <f>IF(F32&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" ht="24.65" customHeight="1">
+    <row r="33" spans="1:13" ht="24.6" customHeight="1">
       <c r="A33" s="6"/>
-      <c r="B33" t="s" s="13">
+      <c r="B33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s" s="13">
+      <c r="C33" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="14">
@@ -3173,28 +3370,28 @@
         <v>2.5</v>
       </c>
       <c r="F33" s="14">
-        <f>D33*E33</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G33" t="s" s="15">
+      <c r="G33" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="2"/>
       <c r="J33" s="16">
-        <f>IF(F33&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" ht="35.65" customHeight="1">
+    <row r="34" spans="1:13" ht="35.65" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" t="s" s="13">
+      <c r="B34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s" s="13">
+      <c r="C34" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="14">
@@ -3204,28 +3401,28 @@
         <v>0</v>
       </c>
       <c r="F34" s="14">
-        <f>D34*E34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" t="s" s="15">
+      <c r="G34" s="15" t="s">
         <v>74</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="2"/>
       <c r="J34" s="16">
-        <f>IF(F34&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" ht="24.65" customHeight="1">
+    <row r="35" spans="1:13" ht="24.6" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" t="s" s="13">
+      <c r="B35" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s" s="13">
+      <c r="C35" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="14">
@@ -3235,23 +3432,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="14">
-        <f>D35*E35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" t="s" s="15">
+      <c r="G35" s="15" t="s">
         <v>77</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="2"/>
       <c r="J35" s="16">
-        <f>IF(F35&gt;3,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" ht="13.65" customHeight="1">
+    <row r="36" spans="1:13" ht="13.7" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3272,7 +3469,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" ht="13.65" customHeight="1">
+    <row r="37" spans="1:13" ht="13.7" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="18"/>
       <c r="C37" s="23"/>
@@ -3287,14 +3484,14 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" ht="13.65" customHeight="1">
+    <row r="38" spans="1:13" ht="13.7" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" t="s" s="28">
+      <c r="B38" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="29">
         <f>(-0.03*F36)+1.4</f>
-        <v>0.9049999999999999</v>
+        <v>0.90499999999999992</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3307,7 +3504,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" ht="13.65" customHeight="1">
+    <row r="39" spans="1:13" ht="13.7" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -3322,7 +3519,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" ht="13.65" customHeight="1">
+    <row r="40" spans="1:13" ht="13.7" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3337,9 +3534,9 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" ht="13.65" customHeight="1">
+    <row r="41" spans="1:13" ht="13.7" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" t="s" s="4">
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="2"/>
@@ -3354,7 +3551,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" ht="13.65" customHeight="1">
+    <row r="42" spans="1:13" ht="13.7" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3369,9 +3566,9 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" ht="13.65" customHeight="1">
+    <row r="43" spans="1:13" ht="13.7" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" t="s" s="3">
+      <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="2"/>
@@ -3386,9 +3583,9 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" ht="13.65" customHeight="1">
+    <row r="44" spans="1:13" ht="13.7" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" t="s" s="31">
+      <c r="B44" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="5"/>
@@ -3403,19 +3600,19 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" ht="23.4" customHeight="1">
+    <row r="45" spans="1:13" ht="23.45" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" t="s" s="32">
+      <c r="B45" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C45" t="s" s="32">
+      <c r="C45" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s" s="32">
+      <c r="D45" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="33"/>
-      <c r="F45" t="s" s="34">
+      <c r="F45" s="34" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="35"/>
@@ -3426,25 +3623,25 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" ht="23.4" customHeight="1">
+    <row r="46" spans="1:13" ht="23.45" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" t="s" s="36">
+      <c r="B46" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C46" t="s" s="37">
+      <c r="C46" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="38">
         <v>1</v>
       </c>
       <c r="E46" s="39"/>
-      <c r="F46" t="s" s="32">
+      <c r="F46" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G46" t="s" s="32">
+      <c r="G46" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="H46" t="s" s="32">
+      <c r="H46" s="32" t="s">
         <v>84</v>
       </c>
       <c r="I46" s="12"/>
@@ -3453,9 +3650,9 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" ht="23.4" customHeight="1">
+    <row r="47" spans="1:13" ht="23.45" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" t="s" s="40">
+      <c r="B47" s="40" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="41"/>
@@ -3463,10 +3660,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="39"/>
-      <c r="F47" t="s" s="36">
+      <c r="F47" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G47" t="s" s="37">
+      <c r="G47" s="37" t="s">
         <v>91</v>
       </c>
       <c r="H47" s="38">
@@ -3478,18 +3675,18 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" ht="33" customHeight="1">
+    <row r="48" spans="1:13" ht="33" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="43"/>
-      <c r="C48" t="s" s="44">
+      <c r="C48" s="44" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="39"/>
-      <c r="F48" t="s" s="36">
+      <c r="F48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G48" t="s" s="37">
+      <c r="G48" s="37" t="s">
         <v>94</v>
       </c>
       <c r="H48" s="38">
@@ -3501,18 +3698,18 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" ht="36.75" customHeight="1">
+    <row r="49" spans="1:13" ht="36.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="45"/>
-      <c r="C49" t="s" s="46">
+      <c r="C49" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="39"/>
-      <c r="F49" t="s" s="36">
+      <c r="F49" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G49" t="s" s="37">
+      <c r="G49" s="37" t="s">
         <v>97</v>
       </c>
       <c r="H49" s="38">
@@ -3524,12 +3721,12 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" t="s" s="47">
+      <c r="B50" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s" s="48">
+      <c r="C50" s="48" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="49">
@@ -3545,7 +3742,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" ht="13.65" customHeight="1">
+    <row r="51" spans="1:13" ht="13.7" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -3560,7 +3757,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" ht="13.65" customHeight="1">
+    <row r="52" spans="1:13" ht="13.7" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3575,18 +3772,18 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C53" t="s" s="25">
+      <c r="C53" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D53" t="s" s="26">
+      <c r="D53" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="E53" t="s" s="26">
+      <c r="E53" s="78" t="s">
         <v>102</v>
       </c>
       <c r="F53" s="12"/>
@@ -3598,24 +3795,17 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" t="s" s="50">
-        <v>103</v>
-      </c>
-      <c r="C54" s="14">
-        <v>3</v>
-      </c>
-      <c r="D54" s="14">
-        <v>10</v>
-      </c>
-      <c r="E54" s="14">
-        <f>C54+D54</f>
-        <v>13</v>
-      </c>
-      <c r="F54" s="51">
-        <f>C67/3</f>
-        <v>39.21666666666666</v>
+    <row r="54" spans="1:13" ht="18" customHeight="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="75">
+        <f>C104/3</f>
+        <v>0</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3625,24 +3815,17 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" t="s" s="50">
-        <v>104</v>
-      </c>
-      <c r="C55" s="14">
-        <v>3</v>
-      </c>
-      <c r="D55" s="14">
-        <v>10</v>
-      </c>
-      <c r="E55" s="14">
-        <f>C55+D55</f>
-        <v>13</v>
-      </c>
-      <c r="F55" s="51">
-        <f>C67/3</f>
-        <v>39.21666666666666</v>
+    <row r="55" spans="1:13" ht="18" customHeight="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="75">
+        <f>C104/3</f>
+        <v>0</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3652,24 +3835,17 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" t="s" s="50">
-        <v>105</v>
-      </c>
-      <c r="C56" s="14">
-        <v>3</v>
-      </c>
-      <c r="D56" s="14">
-        <v>10</v>
-      </c>
-      <c r="E56" s="14">
-        <f>C56+D56</f>
-        <v>13</v>
-      </c>
-      <c r="F56" s="51">
-        <f>C67/3</f>
-        <v>39.21666666666666</v>
+    <row r="56" spans="1:13" ht="18" customHeight="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="75">
+        <f>C104/3</f>
+        <v>0</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3679,18 +3855,15 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" ht="13.65" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" t="s" s="52">
-        <v>106</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="55">
-        <f>SUM(E54:E56)</f>
-        <v>39</v>
-      </c>
-      <c r="F57" s="12"/>
+    <row r="57" spans="1:13" ht="18" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="75"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3699,13 +3872,15 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" ht="13.65" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="2"/>
+    <row r="58" spans="1:13" ht="18" customHeight="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="75"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3714,13 +3889,15 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" ht="14.15" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+    <row r="59" spans="1:13" ht="18" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="75"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3729,16 +3906,16 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" ht="14.15" customHeight="1">
-      <c r="A60" s="57"/>
-      <c r="B60" t="s" s="58">
-        <v>107</v>
-      </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="62"/>
+    <row r="60" spans="1:13" ht="18" customHeight="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3746,14 +3923,16 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" ht="13.65" customHeight="1">
-      <c r="A61" s="57"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="62"/>
+    <row r="61" spans="1:13" ht="18" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3761,19 +3940,16 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" ht="14.15" customHeight="1">
-      <c r="A62" s="57"/>
-      <c r="B62" t="s" s="65">
-        <v>108</v>
-      </c>
-      <c r="C62" s="66">
-        <f>$E$57*$C$22*$C$38</f>
-        <v>35.29499999999999</v>
-      </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="62"/>
+    <row r="62" spans="1:13" ht="18" customHeight="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3781,13 +3957,15 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" ht="14.15" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
+    <row r="63" spans="1:13" ht="18" customHeight="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="75"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3796,13 +3974,15 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" ht="13.65" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+    <row r="64" spans="1:13" ht="18" customHeight="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="75"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3811,16 +3991,19 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" ht="13.65" customHeight="1">
-      <c r="A65" s="6"/>
-      <c r="B65" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="12"/>
+    <row r="65" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="82">
+        <f>SUM(E54:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="70"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3828,22 +4011,16 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" ht="13.65" customHeight="1">
-      <c r="A66" s="6"/>
-      <c r="B66" t="s" s="68">
-        <v>110</v>
-      </c>
-      <c r="C66" t="s" s="68">
-        <v>111</v>
-      </c>
-      <c r="D66" t="s" s="68">
-        <v>112</v>
-      </c>
-      <c r="E66" t="s" s="13">
-        <v>113</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="12"/>
+    <row r="66" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3851,26 +4028,16 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" ht="13.65" customHeight="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="69">
-        <f>C62*C70</f>
-        <v>705.8999999999999</v>
-      </c>
-      <c r="C67" s="69">
-        <f>B67/6</f>
-        <v>117.65</v>
-      </c>
-      <c r="D67" s="69">
-        <f>C67/12</f>
-        <v>9.804166666666665</v>
-      </c>
-      <c r="E67" s="14">
-        <f>C67/150</f>
-        <v>0.7843333333333332</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="12"/>
+    <row r="67" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3878,13 +4045,15 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" ht="13.65" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
+    <row r="68" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="70"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3893,13 +4062,15 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" ht="13.65" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+    <row r="69" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="70"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3908,17 +4079,15 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" ht="13.65" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" t="s" s="3">
-        <v>114</v>
-      </c>
-      <c r="C70" s="16">
-        <v>20</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+    <row r="70" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3927,15 +4096,15 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" ht="13.65" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" t="s" s="3">
-        <v>115</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+    <row r="71" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="70"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3944,13 +4113,625 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
+    <row r="72" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A73" s="66"/>
+      <c r="B73" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="72"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A78" s="66"/>
+      <c r="B78" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A93" s="66"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A94" s="66"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A97" s="52"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A98" s="52"/>
+      <c r="B98" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" s="59"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A99" s="52"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="61">
+        <f>$E$65*$C$22*$C$38</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A103" s="6"/>
+      <c r="B103" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A104" s="6"/>
+      <c r="B104" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="64">
+        <f>B105/6</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="64">
+        <f>C104/12</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="14">
+        <f>C104/150</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="64">
+        <f>C99*C107</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="16">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" ht="13.15" customHeight="1">
+      <c r="B109" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estimation des charges Bounizar Guillemeteau Maingoutaud Annan G1B.xlsx
+++ b/Estimation des charges Bounizar Guillemeteau Maingoutaud Annan G1B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\gitclone\TheParcProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A153428A-5A92-486F-9781-539C17208A9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515E338-E90F-4C32-96EE-23FEDF4E4EF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatisation_AnimaParc" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
   <si>
     <t>ESTIMATION DE PROJET UCP</t>
   </si>
@@ -644,12 +644,117 @@
   <si>
     <t>badgeuse</t>
   </si>
+  <si>
+    <t>commande Fournisseur</t>
+  </si>
+  <si>
+    <t>consulter Contrat</t>
+  </si>
+  <si>
+    <t>consulter matériel</t>
+  </si>
+  <si>
+    <t>consulter employés</t>
+  </si>
+  <si>
+    <t>consulter heures</t>
+  </si>
+  <si>
+    <t>consulter les contrats</t>
+  </si>
+  <si>
+    <t>consulter les matériaux</t>
+  </si>
+  <si>
+    <t>consulter planning(secrétaire)</t>
+  </si>
+  <si>
+    <t>consulter Facture</t>
+  </si>
+  <si>
+    <t>consulter les stock</t>
+  </si>
+  <si>
+    <t>créer planning</t>
+  </si>
+  <si>
+    <t>créer matériel</t>
+  </si>
+  <si>
+    <t>créer Fournisseur</t>
+  </si>
+  <si>
+    <t>supprimer Fournisseur</t>
+  </si>
+  <si>
+    <t>Modifier Fournisseur</t>
+  </si>
+  <si>
+    <t>Consulter Fournisseur</t>
+  </si>
+  <si>
+    <t>Gérer Fournisseur</t>
+  </si>
+  <si>
+    <t>declencher Paiement</t>
+  </si>
+  <si>
+    <t>Enregister horaires</t>
+  </si>
+  <si>
+    <t>enregister contrat de maintenance</t>
+  </si>
+  <si>
+    <t>enregister sinistre</t>
+  </si>
+  <si>
+    <t>enregister intervention</t>
+  </si>
+  <si>
+    <t>heure employé</t>
+  </si>
+  <si>
+    <t>infos employé</t>
+  </si>
+  <si>
+    <t>Gérer espace intervention</t>
+  </si>
+  <si>
+    <t>Gérer espace Employé</t>
+  </si>
+  <si>
+    <t>mise a jour des stocks</t>
+  </si>
+  <si>
+    <t>modifier matériel</t>
+  </si>
+  <si>
+    <t>modifier planning</t>
+  </si>
+  <si>
+    <t>modifier contrat de maintenance</t>
+  </si>
+  <si>
+    <t>payer Facture</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>reception Marchandises</t>
+  </si>
+  <si>
+    <t>supprimer contrat maintenance</t>
+  </si>
+  <si>
+    <t>supprimer planning</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -703,6 +808,12 @@
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -724,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1094,61 +1205,15 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1162,37 +1227,6 @@
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1223,11 +1257,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1322,9 +1382,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1343,44 +1400,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2553,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV109"/>
+  <dimension ref="A1:IV130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B107" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="13.15" customHeight="1"/>
@@ -3774,16 +3819,16 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="69" t="s">
         <v>102</v>
       </c>
       <c r="F53" s="12"/>
@@ -3796,17 +3841,21 @@
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="79" t="s">
+      <c r="A54" s="64"/>
+      <c r="B54" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="75">
-        <f>C104/3</f>
-        <v>0</v>
-      </c>
+      <c r="C54" s="71">
+        <v>3</v>
+      </c>
+      <c r="D54" s="71">
+        <v>5</v>
+      </c>
+      <c r="E54" s="71">
+        <f>SUM(C54,D54)</f>
+        <v>8</v>
+      </c>
+      <c r="F54" s="66"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3816,17 +3865,21 @@
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="79" t="s">
+      <c r="A55" s="64"/>
+      <c r="B55" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="75">
-        <f>C104/3</f>
-        <v>0</v>
-      </c>
+      <c r="C55" s="71">
+        <v>2</v>
+      </c>
+      <c r="D55" s="71">
+        <v>5</v>
+      </c>
+      <c r="E55" s="71">
+        <f t="shared" ref="E55:E115" si="3">SUM(C55,D55)</f>
+        <v>7</v>
+      </c>
+      <c r="F55" s="66"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3836,17 +3889,21 @@
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="18" customHeight="1">
-      <c r="A56" s="66"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="64"/>
+      <c r="B56" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="75">
-        <f>C104/3</f>
-        <v>0</v>
-      </c>
+      <c r="C56" s="71">
+        <v>3</v>
+      </c>
+      <c r="D56" s="71">
+        <v>5</v>
+      </c>
+      <c r="E56" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F56" s="66"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3856,14 +3913,21 @@
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="79" t="s">
+      <c r="A57" s="64"/>
+      <c r="B57" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="75"/>
+      <c r="C57" s="71">
+        <v>2</v>
+      </c>
+      <c r="D57" s="71">
+        <v>5</v>
+      </c>
+      <c r="E57" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F57" s="66"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3873,14 +3937,21 @@
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="18" customHeight="1">
-      <c r="A58" s="66"/>
-      <c r="B58" s="79" t="s">
+      <c r="A58" s="64"/>
+      <c r="B58" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="75"/>
+      <c r="C58" s="71">
+        <v>2</v>
+      </c>
+      <c r="D58" s="71">
+        <v>10</v>
+      </c>
+      <c r="E58" s="71">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F58" s="66"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -3890,14 +3961,21 @@
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="79" t="s">
+      <c r="A59" s="64"/>
+      <c r="B59" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="75"/>
+      <c r="C59" s="71">
+        <v>3</v>
+      </c>
+      <c r="D59" s="71">
+        <v>5</v>
+      </c>
+      <c r="E59" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F59" s="66"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3907,14 +3985,21 @@
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="79" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="75"/>
+      <c r="C60" s="71">
+        <v>3</v>
+      </c>
+      <c r="D60" s="71">
+        <v>5</v>
+      </c>
+      <c r="E60" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F60" s="66"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3924,14 +4009,21 @@
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="79" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="75"/>
+      <c r="C61" s="71">
+        <v>2</v>
+      </c>
+      <c r="D61" s="71">
+        <v>5</v>
+      </c>
+      <c r="E61" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F61" s="66"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3941,14 +4033,21 @@
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="79" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="75"/>
+      <c r="C62" s="71">
+        <v>2</v>
+      </c>
+      <c r="D62" s="71">
+        <v>5</v>
+      </c>
+      <c r="E62" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F62" s="66"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3958,14 +4057,21 @@
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1">
-      <c r="A63" s="66"/>
-      <c r="B63" s="79" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="75"/>
+      <c r="C63" s="71">
+        <v>2</v>
+      </c>
+      <c r="D63" s="71">
+        <v>5</v>
+      </c>
+      <c r="E63" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F63" s="66"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3975,14 +4081,21 @@
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="79" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="75"/>
+      <c r="C64" s="71">
+        <v>3</v>
+      </c>
+      <c r="D64" s="71">
+        <v>5</v>
+      </c>
+      <c r="E64" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F64" s="66"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3992,17 +4105,21 @@
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="79" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82">
-        <f>SUM(E54:E56)</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="70"/>
+      <c r="C65" s="76">
+        <v>2</v>
+      </c>
+      <c r="D65" s="76">
+        <v>5</v>
+      </c>
+      <c r="E65" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F65" s="65"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4012,14 +4129,21 @@
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="79" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="70"/>
+      <c r="C66" s="76">
+        <v>3</v>
+      </c>
+      <c r="D66" s="76">
+        <v>5</v>
+      </c>
+      <c r="E66" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F66" s="65"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4029,14 +4153,21 @@
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A67" s="66"/>
-      <c r="B67" s="79" t="s">
+      <c r="A67" s="64"/>
+      <c r="B67" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="70"/>
+      <c r="C67" s="76">
+        <v>2</v>
+      </c>
+      <c r="D67" s="76">
+        <v>5</v>
+      </c>
+      <c r="E67" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F67" s="65"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -4046,14 +4177,21 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="79" t="s">
+      <c r="A68" s="64"/>
+      <c r="B68" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="70"/>
+      <c r="C68" s="76">
+        <v>2</v>
+      </c>
+      <c r="D68" s="76">
+        <v>5</v>
+      </c>
+      <c r="E68" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F68" s="65"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -4063,14 +4201,21 @@
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A69" s="66"/>
-      <c r="B69" s="79" t="s">
+      <c r="A69" s="64"/>
+      <c r="B69" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="70"/>
+      <c r="C69" s="76">
+        <v>3</v>
+      </c>
+      <c r="D69" s="76">
+        <v>5</v>
+      </c>
+      <c r="E69" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F69" s="65"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -4080,14 +4225,21 @@
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="79" t="s">
+      <c r="A70" s="64"/>
+      <c r="B70" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="70"/>
+      <c r="C70" s="76">
+        <v>3</v>
+      </c>
+      <c r="D70" s="76">
+        <v>5</v>
+      </c>
+      <c r="E70" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F70" s="65"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -4097,14 +4249,21 @@
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="79" t="s">
+      <c r="A71" s="64"/>
+      <c r="B71" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="70"/>
+      <c r="C71" s="76">
+        <v>2</v>
+      </c>
+      <c r="D71" s="76">
+        <v>5</v>
+      </c>
+      <c r="E71" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F71" s="65"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -4114,14 +4273,21 @@
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="79" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="70"/>
+      <c r="C72" s="76">
+        <v>2</v>
+      </c>
+      <c r="D72" s="76">
+        <v>5</v>
+      </c>
+      <c r="E72" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F72" s="65"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -4131,14 +4297,21 @@
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="79" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="70"/>
+      <c r="C73" s="76">
+        <v>3</v>
+      </c>
+      <c r="D73" s="76">
+        <v>10</v>
+      </c>
+      <c r="E73" s="71">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F73" s="65"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4148,14 +4321,21 @@
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="79" t="s">
+      <c r="A74" s="64"/>
+      <c r="B74" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="70"/>
+      <c r="C74" s="76">
+        <v>3</v>
+      </c>
+      <c r="D74" s="76">
+        <v>5</v>
+      </c>
+      <c r="E74" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="65"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -4165,14 +4345,21 @@
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A75" s="66"/>
-      <c r="B75" s="79" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="82"/>
-      <c r="F75" s="70"/>
+      <c r="C75" s="76">
+        <v>2</v>
+      </c>
+      <c r="D75" s="76">
+        <v>5</v>
+      </c>
+      <c r="E75" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F75" s="65"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -4182,14 +4369,21 @@
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A76" s="66"/>
-      <c r="B76" s="79" t="s">
+      <c r="A76" s="64"/>
+      <c r="B76" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="70"/>
+      <c r="C76" s="76">
+        <v>2</v>
+      </c>
+      <c r="D76" s="76">
+        <v>5</v>
+      </c>
+      <c r="E76" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F76" s="65"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4199,14 +4393,21 @@
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A77" s="66"/>
-      <c r="B77" s="71" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="70"/>
+      <c r="C77" s="76">
+        <v>1</v>
+      </c>
+      <c r="D77" s="76">
+        <v>5</v>
+      </c>
+      <c r="E77" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F77" s="65"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -4216,14 +4417,21 @@
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A78" s="66"/>
-      <c r="B78" s="65" t="s">
+      <c r="A78" s="64"/>
+      <c r="B78" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="70"/>
+      <c r="C78" s="76">
+        <v>1</v>
+      </c>
+      <c r="D78" s="76">
+        <v>5</v>
+      </c>
+      <c r="E78" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F78" s="65"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -4233,14 +4441,21 @@
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A79" s="66"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="64"/>
+      <c r="B79" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="70"/>
+      <c r="C79" s="76">
+        <v>3</v>
+      </c>
+      <c r="D79" s="76">
+        <v>5</v>
+      </c>
+      <c r="E79" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F79" s="65"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -4250,14 +4465,21 @@
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="65" t="s">
+      <c r="A80" s="64"/>
+      <c r="B80" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="70"/>
+      <c r="C80" s="76">
+        <v>2</v>
+      </c>
+      <c r="D80" s="76">
+        <v>10</v>
+      </c>
+      <c r="E80" s="71">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F80" s="65"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4267,12 +4489,21 @@
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="70"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="76">
+        <v>3</v>
+      </c>
+      <c r="D81" s="76">
+        <v>10</v>
+      </c>
+      <c r="E81" s="71">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F81" s="65"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4282,12 +4513,21 @@
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A82" s="66"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="70"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="76">
+        <v>2</v>
+      </c>
+      <c r="D82" s="76">
+        <v>5</v>
+      </c>
+      <c r="E82" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F82" s="65"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4297,12 +4537,21 @@
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A83" s="66"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="70"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" s="76">
+        <v>2</v>
+      </c>
+      <c r="D83" s="76">
+        <v>5</v>
+      </c>
+      <c r="E83" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F83" s="65"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -4312,12 +4561,21 @@
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="70"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="76">
+        <v>2</v>
+      </c>
+      <c r="D84" s="76">
+        <v>5</v>
+      </c>
+      <c r="E84" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F84" s="65"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -4327,12 +4585,21 @@
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A85" s="66"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="70"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="76">
+        <v>2</v>
+      </c>
+      <c r="D85" s="76">
+        <v>5</v>
+      </c>
+      <c r="E85" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F85" s="65"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4342,12 +4609,21 @@
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A86" s="66"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="70"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="76">
+        <v>2</v>
+      </c>
+      <c r="D86" s="76">
+        <v>5</v>
+      </c>
+      <c r="E86" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F86" s="65"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -4357,12 +4633,21 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A87" s="66"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="70"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="76">
+        <v>2</v>
+      </c>
+      <c r="D87" s="76">
+        <v>5</v>
+      </c>
+      <c r="E87" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F87" s="65"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4372,12 +4657,21 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="70"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="76">
+        <v>2</v>
+      </c>
+      <c r="D88" s="76">
+        <v>5</v>
+      </c>
+      <c r="E88" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F88" s="65"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -4387,12 +4681,21 @@
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A89" s="66"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="70"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="76">
+        <v>2</v>
+      </c>
+      <c r="D89" s="76">
+        <v>5</v>
+      </c>
+      <c r="E89" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F89" s="65"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -4402,12 +4705,21 @@
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A90" s="66"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="70"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="76">
+        <v>2</v>
+      </c>
+      <c r="D90" s="76">
+        <v>5</v>
+      </c>
+      <c r="E90" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F90" s="65"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4417,12 +4729,21 @@
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A91" s="66"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="70"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="76">
+        <v>3</v>
+      </c>
+      <c r="D91" s="76">
+        <v>5</v>
+      </c>
+      <c r="E91" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F91" s="65"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4432,12 +4753,21 @@
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A92" s="66"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="70"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="76">
+        <v>3</v>
+      </c>
+      <c r="D92" s="76">
+        <v>5</v>
+      </c>
+      <c r="E92" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F92" s="65"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4447,12 +4777,21 @@
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A93" s="66"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="70"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="76">
+        <v>3</v>
+      </c>
+      <c r="D93" s="76">
+        <v>5</v>
+      </c>
+      <c r="E93" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F93" s="65"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -4462,12 +4801,21 @@
       <c r="M93" s="2"/>
     </row>
     <row r="94" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A94" s="66"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="70"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="76">
+        <v>2</v>
+      </c>
+      <c r="D94" s="76">
+        <v>5</v>
+      </c>
+      <c r="E94" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F94" s="65"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -4477,14 +4825,21 @@
       <c r="M94" s="2"/>
     </row>
     <row r="95" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="2"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="76">
+        <v>3</v>
+      </c>
+      <c r="D95" s="76">
+        <v>5</v>
+      </c>
+      <c r="E95" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F95" s="65"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -4493,13 +4848,22 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
+    <row r="96" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A96" s="64"/>
+      <c r="B96" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="76">
+        <v>2</v>
+      </c>
+      <c r="D96" s="76">
+        <v>5</v>
+      </c>
+      <c r="E96" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F96" s="65"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4508,14 +4872,23 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A97" s="52"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="57"/>
+    <row r="97" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A97" s="64"/>
+      <c r="B97" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="76">
+        <v>1</v>
+      </c>
+      <c r="D97" s="76">
+        <v>5</v>
+      </c>
+      <c r="E97" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F97" s="65"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -4524,15 +4897,22 @@
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" s="59"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="57"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="76">
+        <v>1</v>
+      </c>
+      <c r="D98" s="76">
+        <v>5</v>
+      </c>
+      <c r="E98" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F98" s="65"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -4540,17 +4920,23 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A99" s="52"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="61">
-        <f>$E$65*$C$22*$C$38</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="57"/>
+    <row r="99" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A99" s="64"/>
+      <c r="B99" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="76">
+        <v>3</v>
+      </c>
+      <c r="D99" s="76">
+        <v>5</v>
+      </c>
+      <c r="E99" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F99" s="65"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -4558,15 +4944,22 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
+    <row r="100" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A100" s="64"/>
+      <c r="B100" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="76">
+        <v>3</v>
+      </c>
+      <c r="D100" s="76">
+        <v>5</v>
+      </c>
+      <c r="E100" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F100" s="65"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -4576,12 +4969,21 @@
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="76">
+        <v>3</v>
+      </c>
+      <c r="D101" s="76">
+        <v>5</v>
+      </c>
+      <c r="E101" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F101" s="65"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -4591,13 +4993,22 @@
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="12"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="76">
+        <v>3</v>
+      </c>
+      <c r="D102" s="76">
+        <v>5</v>
+      </c>
+      <c r="E102" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F102" s="65"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -4606,21 +5017,22 @@
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="12"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="76">
+        <v>1</v>
+      </c>
+      <c r="D103" s="76">
+        <v>5</v>
+      </c>
+      <c r="E103" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F103" s="65"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -4629,24 +5041,22 @@
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="64">
-        <f>B105/6</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="64">
-        <f>C104/12</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="14">
-        <f>C104/150</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="12"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="76">
+        <v>1</v>
+      </c>
+      <c r="D104" s="76">
+        <v>5</v>
+      </c>
+      <c r="E104" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F104" s="65"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -4655,15 +5065,21 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="64">
-        <f>C99*C107</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="A105" s="64"/>
+      <c r="B105" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="76">
+        <v>1</v>
+      </c>
+      <c r="D105" s="76">
+        <v>5</v>
+      </c>
+      <c r="E105" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F105" s="65"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -4673,12 +5089,21 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="76">
+        <v>1</v>
+      </c>
+      <c r="D106" s="76">
+        <v>5</v>
+      </c>
+      <c r="E106" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F106" s="65"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -4688,14 +5113,21 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="16">
-        <v>20</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="76">
+        <v>1</v>
+      </c>
+      <c r="D107" s="76">
+        <v>5</v>
+      </c>
+      <c r="E107" s="71">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F107" s="65"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -4705,14 +5137,21 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="1:13" ht="13.7" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="A108" s="64"/>
+      <c r="B108" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C108" s="76">
+        <v>3</v>
+      </c>
+      <c r="D108" s="76">
+        <v>5</v>
+      </c>
+      <c r="E108" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F108" s="65"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -4721,17 +5160,433 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" ht="13.15" customHeight="1">
-      <c r="B109" s="3" t="s">
+    <row r="109" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A109" s="64"/>
+      <c r="B109" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="76">
+        <v>3</v>
+      </c>
+      <c r="D109" s="76">
+        <v>5</v>
+      </c>
+      <c r="E109" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F109" s="65"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A110" s="64"/>
+      <c r="B110" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="76">
+        <v>3</v>
+      </c>
+      <c r="D110" s="76">
+        <v>5</v>
+      </c>
+      <c r="E110" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F110" s="65"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A111" s="64"/>
+      <c r="B111" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="76">
+        <v>3</v>
+      </c>
+      <c r="D111" s="76">
+        <v>5</v>
+      </c>
+      <c r="E111" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F111" s="65"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A112" s="64"/>
+      <c r="B112" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="76">
+        <v>2</v>
+      </c>
+      <c r="D112" s="76">
+        <v>5</v>
+      </c>
+      <c r="E112" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F112" s="65"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A113" s="64"/>
+      <c r="B113" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="76">
+        <v>3</v>
+      </c>
+      <c r="D113" s="76">
+        <v>5</v>
+      </c>
+      <c r="E113" s="71">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F113" s="65"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A114" s="64"/>
+      <c r="B114" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="76">
+        <v>2</v>
+      </c>
+      <c r="D114" s="76">
+        <v>5</v>
+      </c>
+      <c r="E114" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F114" s="65"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A115" s="64"/>
+      <c r="B115" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="76">
+        <v>2</v>
+      </c>
+      <c r="D115" s="76">
+        <v>5</v>
+      </c>
+      <c r="E115" s="71">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F115" s="65"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A116" s="64"/>
+      <c r="B116" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="75"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="71">
+        <f>SUM(E54:E115)</f>
+        <v>470</v>
+      </c>
+      <c r="F116" s="65"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="73"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A118" s="51"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A119" s="51"/>
+      <c r="B119" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="58"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A120" s="51"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="60">
+        <f>$E$116*$C$22*$C$38</f>
+        <v>425.34999999999997</v>
+      </c>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" ht="14.1" customHeight="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="54"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A123" s="6"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A124" s="6"/>
+      <c r="B124" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A125" s="6"/>
+      <c r="B125" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="63">
+        <f>B126/6</f>
+        <v>1417.8333333333333</v>
+      </c>
+      <c r="D125" s="63">
+        <f>C125/12</f>
+        <v>118.15277777777777</v>
+      </c>
+      <c r="E125" s="14">
+        <f>C125/150</f>
+        <v>9.4522222222222219</v>
+      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="77">
+        <f>C120*C128</f>
+        <v>8507</v>
+      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="16">
+        <v>20</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13" ht="13.7" customHeight="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" ht="13.15" customHeight="1">
+      <c r="B130" s="3" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>